--- a/src/main/webapp/res/file/admin/scores/학생성적_일괄.xlsx
+++ b/src/main/webapp/res/file/admin/scores/학생성적_일괄.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996D2CA5-987C-4A4A-BF45-6680F5894443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C0165B-CEF1-4702-93BD-D031712FB85E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>년도</t>
   </si>
@@ -134,6 +134,22 @@
   </si>
   <si>
     <t>다음과 같은 양식으로 data 시트에 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IB00019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201432017</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1002,7 @@
   <dimension ref="B1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1134,11 +1150,21 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
